--- a/Organisatorisches/Zeitenprotokoll.xlsx
+++ b/Organisatorisches/Zeitenprotokoll.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\ISTER\Organisatorisches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C15B1A1A-235F-4A1A-B0BA-4C0D5BA46CC6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CAEA69F1-CF1E-4649-8B2F-2558A031E086}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{FD782830-D1B5-4D3B-9AF6-612AB898D10F}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,14 +673,14 @@
         <v>43381</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C11">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="2">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>43381</v>
       </c>
     </row>
@@ -826,14 +826,14 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C23">
+    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="2">
         <v>2</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="3">
         <v>43423</v>
       </c>
     </row>

--- a/Organisatorisches/Zeitenprotokoll.xlsx
+++ b/Organisatorisches/Zeitenprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CAEA69F1-CF1E-4649-8B2F-2558A031E086}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4AEB16A6-116E-4091-BA19-28D0BEFE7950}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{FD782830-D1B5-4D3B-9AF6-612AB898D10F}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,14 +737,14 @@
         <v>43395</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C16">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="2">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="3">
         <v>43402</v>
       </c>
     </row>

--- a/Organisatorisches/Zeitenprotokoll.xlsx
+++ b/Organisatorisches/Zeitenprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4AEB16A6-116E-4091-BA19-28D0BEFE7950}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{12571A11-0E43-4A46-A585-7C6861F3A47D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{FD782830-D1B5-4D3B-9AF6-612AB898D10F}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,14 +662,14 @@
         <v>43381</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C10">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <v>43381</v>
       </c>
     </row>
@@ -684,14 +684,14 @@
         <v>43381</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="2">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
         <v>43381</v>
       </c>
     </row>

--- a/Organisatorisches/Zeitenprotokoll.xlsx
+++ b/Organisatorisches/Zeitenprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{12571A11-0E43-4A46-A585-7C6861F3A47D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{97C40F33-EEA0-45BA-823C-C96CE98FC532}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{FD782830-D1B5-4D3B-9AF6-612AB898D10F}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,14 +759,14 @@
         <v>43402</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C18">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="2">
         <v>5</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="3">
         <v>43402</v>
       </c>
     </row>

--- a/Organisatorisches/Zeitenprotokoll.xlsx
+++ b/Organisatorisches/Zeitenprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{97C40F33-EEA0-45BA-823C-C96CE98FC532}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B40417B5-C485-415C-9243-7E6A6E37FCD0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{FD782830-D1B5-4D3B-9AF6-612AB898D10F}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,14 +770,14 @@
         <v>43402</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C19">
+    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="2">
         <v>6</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="3">
         <v>43402</v>
       </c>
     </row>

--- a/Organisatorisches/Zeitenprotokoll.xlsx
+++ b/Organisatorisches/Zeitenprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B40417B5-C485-415C-9243-7E6A6E37FCD0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{565DEBFD-A809-43D8-9974-72A223902F6B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{FD782830-D1B5-4D3B-9AF6-612AB898D10F}"/>
   </bookViews>

--- a/Organisatorisches/Zeitenprotokoll.xlsx
+++ b/Organisatorisches/Zeitenprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{565DEBFD-A809-43D8-9974-72A223902F6B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CC5790CA-D3C6-4113-8897-D17176260003}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{FD782830-D1B5-4D3B-9AF6-612AB898D10F}"/>
   </bookViews>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29140236-DB94-4B4D-9C52-776B37635B80}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,14 +726,14 @@
         <v>43409</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C15">
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="2">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
         <v>43395</v>
       </c>
     </row>

--- a/Organisatorisches/Zeitenprotokoll.xlsx
+++ b/Organisatorisches/Zeitenprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CC5790CA-D3C6-4113-8897-D17176260003}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EB9D06C6-7D01-4555-9753-B8F6693A7560}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{FD782830-D1B5-4D3B-9AF6-612AB898D10F}"/>
   </bookViews>
@@ -117,18 +117,12 @@
     <t>Design der Website</t>
   </si>
   <si>
-    <t>Übernehmen des vorhandenen Designs</t>
-  </si>
-  <si>
     <t>Anzeigen von "THE CHALLENGE ENDS/BEGINS"</t>
   </si>
   <si>
     <t>Vergangene Ergebnisse (2015-2017) in Db einspeisen + Anzeigemöglichkeit für Datenkonstanz</t>
   </si>
   <si>
-    <t>Eingabeformular in fertiger Form anlegen</t>
-  </si>
-  <si>
     <t>Ausgabe der Einzelergebnisse in pdf-Form</t>
   </si>
   <si>
@@ -148,6 +142,12 @@
   </si>
   <si>
     <t>Benachrichtigung bei jeder 50. Anmeldung einrichten</t>
+  </si>
+  <si>
+    <t>Aufbau und Grundfunktionalität der Website schaffen</t>
+  </si>
+  <si>
+    <t>Eingabeformular in funktionaler Form anlegen</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,23 +706,23 @@
         <v>43381</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="3">
         <v>43395</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="3">
         <v>43409</v>
       </c>
     </row>
@@ -731,7 +731,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="3">
         <v>43395</v>
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1">
         <v>43402</v>
@@ -764,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F18" s="3">
         <v>43402</v>
@@ -775,20 +775,20 @@
         <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" s="3">
         <v>43402</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C20">
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="2">
         <v>7</v>
       </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="3">
         <v>43402</v>
       </c>
     </row>
@@ -797,7 +797,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="1">
         <v>43404</v>
@@ -842,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F24" s="1">
         <v>43423</v>
@@ -873,13 +873,13 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F26" s="1">
         <v>43455</v>
@@ -893,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F27" s="1">
         <v>43455</v>

--- a/Organisatorisches/Zeitenprotokoll.xlsx
+++ b/Organisatorisches/Zeitenprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EB9D06C6-7D01-4555-9753-B8F6693A7560}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C9E8BA2D-9FCE-49FE-BF7B-7F2ED8929A6B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{FD782830-D1B5-4D3B-9AF6-612AB898D10F}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,14 +695,14 @@
         <v>43381</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C13">
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="2">
         <v>5</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>43381</v>
       </c>
     </row>
@@ -803,26 +803,26 @@
         <v>43404</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="3">
         <v>43423</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="3">
         <v>43423</v>
       </c>
     </row>

--- a/Organisatorisches/Zeitenprotokoll.xlsx
+++ b/Organisatorisches/Zeitenprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C9E8BA2D-9FCE-49FE-BF7B-7F2ED8929A6B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EF6841E8-55C4-4099-B6A7-73B1C1455AD2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{FD782830-D1B5-4D3B-9AF6-612AB898D10F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>User Story</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Anzeigen von "THE CHALLENGE ENDS/BEGINS"</t>
   </si>
   <si>
-    <t>Vergangene Ergebnisse (2015-2017) in Db einspeisen + Anzeigemöglichkeit für Datenkonstanz</t>
-  </si>
-  <si>
     <t>Ausgabe der Einzelergebnisse in pdf-Form</t>
   </si>
   <si>
@@ -148,6 +145,18 @@
   </si>
   <si>
     <t>Eingabeformular in funktionaler Form anlegen</t>
+  </si>
+  <si>
+    <t>CRUD-Tabelle anlegen</t>
+  </si>
+  <si>
+    <t>Drag &amp; Drop für Excel-Listen bzw. Bild</t>
+  </si>
+  <si>
+    <t>Benutzerfreundliches Distance-Formular (123)</t>
+  </si>
+  <si>
+    <t>Vergangene Ergebnisse (2015-2017) in Db einspeisen</t>
   </si>
 </sst>
 </file>
@@ -189,11 +198,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -508,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29140236-DB94-4B4D-9C52-776B37635B80}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,13 +729,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="3">
         <v>43395</v>
       </c>
       <c r="G14" s="3">
-        <v>43409</v>
+        <v>43451</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -753,10 +765,10 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="1">
-        <v>43402</v>
+        <v>43451</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -764,7 +776,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="3">
         <v>43402</v>
@@ -775,7 +787,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="3">
         <v>43402</v>
@@ -786,116 +798,149 @@
         <v>7</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="3">
         <v>43402</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C21">
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="4">
         <v>8</v>
       </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="D21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="5">
+        <v>43451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="4">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="5">
+        <v>43451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="1">
         <v>43404</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>5</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C24" s="2">
         <v>1</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F24" s="3">
         <v>43423</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G24" s="3">
+        <v>43451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="3">
         <v>43423</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="2">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="3">
-        <v>43423</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C24">
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="4">
         <v>3</v>
       </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="1">
-        <v>43423</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="1">
-        <v>43430</v>
-      </c>
-      <c r="G25" s="1">
-        <v>43430</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="1">
-        <v>43455</v>
-      </c>
-      <c r="G26" s="1">
-        <v>43455</v>
+      <c r="D26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="5">
+        <v>43451</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
         <v>37</v>
       </c>
       <c r="F27" s="1">
+        <v>43423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="1">
+        <v>43451</v>
+      </c>
+      <c r="G28" s="1">
+        <v>43451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="1">
+        <v>43455</v>
+      </c>
+      <c r="G29" s="1">
+        <v>43455</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="1">
         <v>43455</v>
       </c>
     </row>

--- a/Organisatorisches/Zeitenprotokoll.xlsx
+++ b/Organisatorisches/Zeitenprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EF6841E8-55C4-4099-B6A7-73B1C1455AD2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{038B527E-45D6-4A58-B0A7-394BD30B931E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{FD782830-D1B5-4D3B-9AF6-612AB898D10F}"/>
   </bookViews>
@@ -205,7 +205,7 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -523,7 +523,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -815,25 +815,25 @@
         <v>43451</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="4">
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="2">
         <v>9</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="3">
         <v>43451</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C23">
+    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="2">
         <v>10</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="3">
         <v>43404</v>
       </c>
     </row>

--- a/Organisatorisches/Zeitenprotokoll.xlsx
+++ b/Organisatorisches/Zeitenprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{038B527E-45D6-4A58-B0A7-394BD30B931E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FA849259-201B-406D-81D8-DC3B98C9CAE8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{FD782830-D1B5-4D3B-9AF6-612AB898D10F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>User Story</t>
   </si>
@@ -150,13 +150,31 @@
     <t>CRUD-Tabelle anlegen</t>
   </si>
   <si>
-    <t>Drag &amp; Drop für Excel-Listen bzw. Bild</t>
-  </si>
-  <si>
     <t>Benutzerfreundliches Distance-Formular (123)</t>
   </si>
   <si>
     <t>Vergangene Ergebnisse (2015-2017) in Db einspeisen</t>
+  </si>
+  <si>
+    <t>Filtersuche nach Participant anlegen</t>
+  </si>
+  <si>
+    <t>Kontaktformular anlegen</t>
+  </si>
+  <si>
+    <t>Erweiterung der Clubergebnisse um Statistiktabellen</t>
+  </si>
+  <si>
+    <t>Website responsive machen</t>
+  </si>
+  <si>
+    <t>Email-Name Referenztabelle für Clubs erstellen</t>
+  </si>
+  <si>
+    <t>Suchfunktion nach einem Beweisbild</t>
+  </si>
+  <si>
+    <t>Website designen</t>
   </si>
 </sst>
 </file>
@@ -520,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29140236-DB94-4B4D-9C52-776B37635B80}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,7 +786,7 @@
         <v>33</v>
       </c>
       <c r="F17" s="1">
-        <v>43451</v>
+        <v>43465</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -793,26 +811,26 @@
         <v>43402</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="2">
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="4">
         <v>7</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="5">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="2">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F21" s="3">
         <v>43402</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="4">
-        <v>8</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="5">
-        <v>43451</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -820,7 +838,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" s="3">
         <v>43451</v>
@@ -831,118 +849,190 @@
         <v>10</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" s="3">
         <v>43404</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>5</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F24" s="3">
-        <v>43423</v>
-      </c>
-      <c r="G24" s="3">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="2">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="3">
-        <v>43423</v>
+        <v>43446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="4">
+        <v>12</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="5">
+        <v>43465</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="4">
+        <v>13</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="5">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="3">
+        <v>43423</v>
+      </c>
+      <c r="G27" s="3">
+        <v>43451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="3">
+        <v>43423</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="4">
         <v>3</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="5">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="1">
-        <v>43423</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="1">
-        <v>43451</v>
-      </c>
-      <c r="G28" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="1">
-        <v>43455</v>
-      </c>
-      <c r="G29" s="1">
-        <v>43455</v>
+      <c r="F29" s="5">
+        <v>43465</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="5">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="5">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="5">
+        <v>43465</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C33">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="5">
+        <v>43465</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="1">
-        <v>43455</v>
-      </c>
+      <c r="F34" s="5">
+        <v>43465</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="5">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="5">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F39" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
